--- a/doc/2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
+++ b/doc/2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="8Xdqw6bUrp/J7FHxw+zrzvapEtBEqzFTK5JiR/+16Vk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="joghBD6Y8xHQQPZC17mAKB2mxQYVW8g3OWAWSTImgyM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -72,14 +72,33 @@
     <t>ページングリンクボタンを追加</t>
   </si>
   <si>
+    <t>出演番組（直近）をページングリンクボタンへ変更</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
   </si>
   <si>
-    <t>・オンエア管理テーブルを元に、対象年月と対象週とタレントで検索を行い、検索結果を表示する。（初期表示時は検索条件部と検索ボタンのみ表示）
-・タレント名のリンクボタンをクリック時に、タレントIDをキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">・オンエア管理テーブルを元に、対象年月と対象週とタレントで検索を行い、検索結果を表示する。（初期表示時は検索条件部と検索ボタンのみ表示）
+・タレント名のリンクボタンをクリック時に、タレントIDをキーとして、次画面「タレント詳細画面」へ遷移する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>・出演番組（直近）のリンクボタンをクリック時に、番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面」へ遷移する。</t>
+    </r>
   </si>
   <si>
     <t>3.【イベント情報】</t>
@@ -109,7 +128,13 @@
     <t>タレント名クリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面」へ遷移する。</t>
+  </si>
+  <si>
+    <t>出演番組（直近）クリック時</t>
+  </si>
+  <si>
+    <t>リンクボタンをクリック時に、番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面」へ遷移する。</t>
   </si>
   <si>
     <t>ページングリンククリック時</t>
@@ -288,7 +313,7 @@
   </si>
   <si>
     <t>タレント名にリンクボタンの設定を行う。
-クリック時にキーを渡して、画面遷移する。
+クリック時にキーを渡して、画面「タレント詳細画面」へ遷移する。
 ※タレントIDも保持する。</t>
   </si>
   <si>
@@ -344,7 +369,9 @@
     <t>出演番組（直近）</t>
   </si>
   <si>
-    <t>対象年月、対象週の期間に対象行のタレントが直近で出演する番組名を表示する</t>
+    <t>出演番組（直近）名にリンクボタンの設定を行う。
+クリック時にキーを渡して、画面「番組詳細画面」へ遷移する。
+※番組IDも保持する。</t>
   </si>
   <si>
     <t>オンエア管理テーブル
@@ -410,6 +437,9 @@
     <t>1. 処理一覧</t>
   </si>
   <si>
+    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+  </si>
+  <si>
     <t>2. 処理詳細</t>
   </si>
   <si>
@@ -464,10 +494,16 @@
     <t xml:space="preserve">　　2-3-1.タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.4 ページングリンククリック時</t>
+    <t xml:space="preserve"> 2.4 出演番組（直近）クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-4-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+    <t xml:space="preserve">　　2-4-1.番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面（ProgramDetail.vue)」へ遷移する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5 ページングリンククリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-5-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
   </si>
 </sst>
 </file>
@@ -477,7 +513,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -512,6 +548,15 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -685,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -725,6 +770,9 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +784,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -749,11 +800,8 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -769,6 +817,15 @@
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -819,13 +876,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -842,7 +908,13 @@
     <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,12 +933,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9010650" cy="5572125"/>
+    <xdr:ext cx="8677275" cy="5886450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="画像"/>
@@ -1163,8 +1235,8 @@
       <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11">
-        <v>45044.0</v>
+      <c r="H2" s="13">
+        <v>45316.0</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>9</v>
@@ -1189,184 +1261,192 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>1.0</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>45041.0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="29.25" customHeight="1">
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>2.0</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>45043.0</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
+    <row r="7" ht="29.25" customHeight="1">
+      <c r="B7" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45316.0</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1"/>
@@ -2382,13 +2462,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2422,21 +2502,21 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="11">
         <v>45041.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="21">
-        <v>45129.0</v>
+      <c r="L2" s="13">
+        <v>45316.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -2486,7 +2566,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3300,7 +3380,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3329,8 +3409,8 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="22" t="s">
-        <v>19</v>
+      <c r="B34" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3359,8 +3439,8 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3382,8 +3462,8 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -3462,7 +3542,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3491,13 +3571,13 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="C40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="21"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -3524,12 +3604,12 @@
     <row r="41" ht="33.75" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="C41" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3556,12 +3636,12 @@
     <row r="42" ht="60.75" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="C42" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="21"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3588,12 +3668,12 @@
     <row r="43" ht="48.0" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="C43" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="21"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3617,15 +3697,15 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="38.25" customHeight="1">
+    <row r="44" ht="48.0" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="27" t="s">
+      <c r="B44" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="C44" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="21"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3649,11 +3729,15 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" ht="38.25" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+      <c r="B45" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="21"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3679,16 +3763,12 @@
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -3712,14 +3792,14 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -3743,32 +3823,20 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="25" t="s">
+      <c r="B48" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48" s="25" t="s">
+      <c r="G48" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -3785,24 +3853,34 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="90.0" customHeight="1">
+    <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="28" t="s">
-        <v>41</v>
+      <c r="B49" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>42</v>
+      <c r="C49" s="26" t="s">
+        <v>38</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>43</v>
+      <c r="D49" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
+      <c r="G49" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -3819,18 +3897,24 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" ht="16.5" customHeight="1">
+    <row r="50" ht="90.0" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
+      <c r="B50" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3849,16 +3933,12 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -3881,32 +3961,20 @@
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="25" t="s">
-        <v>34</v>
+      <c r="B52" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="25" t="s">
-        <v>37</v>
+      <c r="G52" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="H52" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -3925,22 +3993,32 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="31" t="s">
-        <v>46</v>
+      <c r="B53" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>42</v>
+      <c r="C53" s="26" t="s">
+        <v>48</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>47</v>
+      <c r="D53" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="G53" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -3959,32 +4037,22 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="32" t="s">
-        <v>48</v>
+      <c r="B54" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4003,22 +4071,32 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="31" t="s">
-        <v>55</v>
+      <c r="B55" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="G55" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4037,32 +4115,22 @@
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="32" t="s">
-        <v>48</v>
+      <c r="B56" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4081,22 +4149,32 @@
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="31" t="s">
-        <v>58</v>
+      <c r="B57" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
+      <c r="G57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4113,34 +4191,24 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="43.5" customHeight="1">
+    <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="33" t="s">
-        <v>59</v>
+      <c r="B58" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K58" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -4157,18 +4225,34 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" ht="16.5" customHeight="1">
+    <row r="59" ht="43.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
+      <c r="B59" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
+      <c r="G59" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J59" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="32" t="s">
+        <v>68</v>
+      </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4215,32 +4299,16 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K61" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -4257,24 +4325,34 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" ht="34.5" customHeight="1">
+    <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="12" t="s">
-        <v>66</v>
+      <c r="B62" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>67</v>
+      <c r="C62" s="26" t="s">
+        <v>48</v>
       </c>
-      <c r="D62" s="28" t="s">
-        <v>68</v>
+      <c r="D62" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
+      <c r="G62" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4291,34 +4369,24 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="46.5" customHeight="1">
+    <row r="63" ht="34.5" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
-      <c r="D63" s="34" t="s">
-        <v>70</v>
+      <c r="D63" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J63" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>75</v>
-      </c>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4335,24 +4403,34 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" ht="46.5" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
+      <c r="G64" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4369,34 +4447,24 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="48.0" customHeight="1">
+    <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
-      <c r="D65" s="40" t="s">
-        <v>78</v>
+      <c r="D65" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H65" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J65" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65" s="36" t="s">
-        <v>80</v>
-      </c>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4413,18 +4481,34 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" ht="48.0" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="B66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
+      <c r="G66" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>83</v>
+      </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
@@ -4443,16 +4527,12 @@
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -4475,32 +4555,20 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="25" t="s">
-        <v>34</v>
+      <c r="B68" s="6" t="s">
+        <v>84</v>
       </c>
-      <c r="C68" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="25" t="s">
-        <v>37</v>
+      <c r="G68" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="H68" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" s="25" t="s">
-        <v>36</v>
-      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -4519,22 +4587,32 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="31" t="s">
-        <v>58</v>
+      <c r="B69" s="26" t="s">
+        <v>37</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>42</v>
+      <c r="C69" s="26" t="s">
+        <v>48</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>82</v>
+      <c r="D69" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
+      <c r="G69" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -4551,32 +4629,24 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" ht="49.5" customHeight="1">
+    <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="43" t="s">
-        <v>83</v>
+      <c r="B70" s="35" t="s">
+        <v>61</v>
       </c>
-      <c r="D70" s="44" t="s">
-        <v>84</v>
+      <c r="C70" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J70" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="K70" s="45" t="s">
-        <v>87</v>
-      </c>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4593,26 +4663,32 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
+    <row r="71" ht="49.5" customHeight="1">
       <c r="A71" s="6"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H71" s="34" t="s">
+      <c r="G71" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="H71" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="I71" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="46"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -4631,22 +4707,24 @@
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="6"/>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>42</v>
+      <c r="I72" s="38" t="s">
+        <v>92</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>82</v>
+      <c r="J72" s="38" t="s">
+        <v>93</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4663,32 +4741,24 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" ht="57.0" customHeight="1">
+    <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="33"/>
+      <c r="B73" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="C73" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
-      <c r="D73" s="28" t="s">
-        <v>92</v>
+      <c r="D73" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I73" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="J73" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="K73" s="34" t="s">
-        <v>97</v>
-      </c>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4705,24 +4775,32 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="16.5" customHeight="1">
+    <row r="74" ht="57.0" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="31" t="s">
-        <v>98</v>
+      <c r="B74" s="37"/>
+      <c r="C74" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>82</v>
+      <c r="D74" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
+      <c r="G74" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -4739,32 +4817,24 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" ht="92.25" customHeight="1">
+    <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="43" t="s">
-        <v>42</v>
+      <c r="B75" s="35" t="s">
+        <v>101</v>
       </c>
-      <c r="D75" s="44" t="s">
-        <v>99</v>
+      <c r="C75" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="J75" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="K75" s="44" t="s">
-        <v>104</v>
-      </c>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -4781,26 +4851,32 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" ht="45.0" customHeight="1">
+    <row r="76" ht="92.25" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>102</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="H76" s="28" t="s">
+      <c r="J76" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I76" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J76" s="28" t="s">
+      <c r="K76" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="K76" s="46"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4817,24 +4893,26 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" ht="16.5" customHeight="1">
+    <row r="77" ht="45.0" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="37"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>42</v>
+      <c r="H77" s="32" t="s">
+        <v>109</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>82</v>
+      <c r="I77" s="32" t="s">
+        <v>66</v>
       </c>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="J77" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K77" s="50"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -4851,30 +4929,24 @@
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" ht="38.25" customHeight="1">
-      <c r="A78" s="47"/>
-      <c r="B78" s="48"/>
+    <row r="78" ht="16.5" customHeight="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="35" t="s">
+        <v>111</v>
+      </c>
       <c r="C78" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
-      <c r="D78" s="28" t="s">
-        <v>109</v>
+      <c r="D78" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J78" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="K78" s="12"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -4891,24 +4963,30 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="59.25" customHeight="1">
-      <c r="A79" s="47"/>
-      <c r="B79" s="48" t="s">
-        <v>113</v>
+    <row r="79" ht="38.25" customHeight="1">
+      <c r="A79" s="54"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>114</v>
+      <c r="D79" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
+      <c r="G79" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="K79" s="12"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -4925,18 +5003,24 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
+    <row r="80" ht="59.25" customHeight="1">
+      <c r="A80" s="54"/>
+      <c r="B80" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -30657,16 +30741,36 @@
       <c r="Y998" s="6"/>
       <c r="Z998" s="6"/>
     </row>
+    <row r="999" ht="16.5" customHeight="1">
+      <c r="A999" s="6"/>
+      <c r="B999" s="6"/>
+      <c r="C999" s="6"/>
+      <c r="D999" s="6"/>
+      <c r="E999" s="6"/>
+      <c r="F999" s="6"/>
+      <c r="G999" s="6"/>
+      <c r="H999" s="6"/>
+      <c r="I999" s="6"/>
+      <c r="J999" s="6"/>
+      <c r="K999" s="6"/>
+      <c r="L999" s="6"/>
+      <c r="M999" s="6"/>
+      <c r="N999" s="6"/>
+      <c r="O999" s="6"/>
+      <c r="P999" s="6"/>
+      <c r="Q999" s="6"/>
+      <c r="R999" s="6"/>
+      <c r="S999" s="6"/>
+      <c r="T999" s="6"/>
+      <c r="U999" s="6"/>
+      <c r="V999" s="6"/>
+      <c r="W999" s="6"/>
+      <c r="X999" s="6"/>
+      <c r="Y999" s="6"/>
+      <c r="Z999" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="K75:K76"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -30674,6 +30778,15 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="K76:K77"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30711,13 +30824,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -30751,21 +30864,21 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="11">
         <v>45041.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="21">
-        <v>45129.0</v>
+      <c r="L2" s="13">
+        <v>45316.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -30786,183 +30899,202 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="49" t="s">
-        <v>115</v>
+      <c r="B4" s="56" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="D5" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="D6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="D7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" ht="69.0" customHeight="1">
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>3.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" ht="60.75" customHeight="1">
-      <c r="B9" s="14">
+      <c r="D8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" ht="69.0" customHeight="1">
+      <c r="B9" s="59">
         <v>4.0</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1"/>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="49" t="s">
-        <v>116</v>
+      <c r="D9" s="31" t="s">
+        <v>31</v>
       </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1"/>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="49" t="s">
-        <v>117</v>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" ht="60.75" customHeight="1">
+      <c r="B10" s="18">
+        <v>5.0</v>
       </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="49" t="s">
-        <v>118</v>
+      <c r="C10" s="12" t="s">
+        <v>32</v>
       </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="49" t="s">
-        <v>119</v>
+      <c r="D10" s="28" t="s">
+        <v>33</v>
       </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="49" t="s">
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1"/>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="B12" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1"/>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="49" t="s">
+    <row r="13" ht="18.75" customHeight="1"/>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="B14" s="56" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="49" t="s">
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="56" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="C20" s="49" t="s">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="56" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="C21" s="49" t="s">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="56" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="C22" s="49" t="s">
+    <row r="18" ht="18.75" customHeight="1"/>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="B19" s="56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="C23" s="49" t="s">
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="B20" s="56" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="C24" s="49" t="s">
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="C21" s="56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="52" t="s">
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="C22" s="56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="49" t="s">
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="C23" s="56" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="B30" s="49" t="s">
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="C24" s="56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="B32" s="49" t="s">
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="C25" s="56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="B34" s="49" t="s">
+    <row r="26" ht="18.75" customHeight="1"/>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="B27" s="60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="B35" s="49" t="s">
+    <row r="28" ht="18.75" customHeight="1"/>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="B29" s="56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="B37" s="49" t="s">
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="B31" s="56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="B38" s="49" t="s">
+    <row r="32" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="B33" s="56" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="B35" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="B36" s="56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1"/>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="B38" s="61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1">
+      <c r="B39" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
+    <row r="41" ht="18.75" customHeight="1">
+      <c r="B41" s="60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1">
+      <c r="B42" s="60" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="43" ht="18.75" customHeight="1"/>
     <row r="44" ht="18.75" customHeight="1"/>
     <row r="45" ht="18.75" customHeight="1"/>
@@ -31921,8 +32053,9 @@
     <row r="998" ht="18.75" customHeight="1"/>
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -31930,6 +32063,7 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions/>

--- a/doc/2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
+++ b/doc/2023年上期/【画面設計】週間タレント出演画面（WeekTalentSh.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="joghBD6Y8xHQQPZC17mAKB2mxQYVW8g3OWAWSTImgyM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="2+VDG70nRgkihSGa2h4FddcceJ/fyncdLamNGNizRnQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="158">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -75,6 +75,9 @@
     <t>出演番組（直近）をページングリンクボタンへ変更</t>
   </si>
   <si>
+    <t>対象年月・週を追加</t>
+  </si>
+  <si>
     <t>1.【画面イメージ】</t>
   </si>
   <si>
@@ -97,11 +100,42 @@
         <color rgb="FFFF0000"/>
         <sz val="10.0"/>
       </rPr>
-      <t>・出演番組（直近）のリンクボタンをクリック時に、番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面」へ遷移する。</t>
+      <t>・出演番組（直近）のリンクボタンをクリック時に、番組ID、オンエア日（直近）、対象年月、対象週をキーとして、次画面「番組詳細画面」へ遷移する。
+・対象年月・週のリンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
     </r>
   </si>
   <si>
-    <t>3.【イベント情報】</t>
+    <t>3.【前の画面より受け取ったパラメータ】</t>
+  </si>
+  <si>
+    <t>パラメータ名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>桁数</t>
+  </si>
+  <si>
+    <t>年月</t>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>６桁（YYYYMM)</t>
+  </si>
+  <si>
+    <t>週</t>
+  </si>
+  <si>
+    <t>１桁</t>
+  </si>
+  <si>
+    <t>タレント名</t>
+  </si>
+  <si>
+    <t>３０桁</t>
   </si>
   <si>
     <t>イベント名</t>
@@ -113,8 +147,8 @@
     <t>初期表示時</t>
   </si>
   <si>
-    <t xml:space="preserve">検索条件部と検索ボタンのみ表示する。
-</t>
+    <t>検索条件部と検索ボタンのみ表示する。
+パラメータが存在した場合は、検索処理を実施する。</t>
   </si>
   <si>
     <t>検索ボタン押下時</t>
@@ -128,7 +162,7 @@
     <t>タレント名クリック時</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面」へ遷移する。</t>
+    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
     <t>出演番組（直近）クリック時</t>
@@ -141,6 +175,12 @@
   </si>
   <si>
     <t>ページングリンククリック時に、次の10件、前の10件へ遷移できるようにする。</t>
+  </si>
+  <si>
+    <t>対象年月・週クリック時</t>
+  </si>
+  <si>
+    <t>リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
   </si>
   <si>
     <t>4.【フォーム情報】</t>
@@ -165,12 +205,6 @@
   </si>
   <si>
     <t>取得列</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>桁数</t>
   </si>
   <si>
     <t>バリデーションチェックエラー結果</t>
@@ -227,12 +261,6 @@
     <t>1～5のいずれかを入力する。</t>
   </si>
   <si>
-    <t>１桁</t>
-  </si>
-  <si>
-    <t>タレント名</t>
-  </si>
-  <si>
     <t>（※入力任意）</t>
   </si>
   <si>
@@ -265,6 +293,29 @@
   </si>
   <si>
     <t>検索条件の内容で検索処理を行い、検索結果にデータを表示する。</t>
+  </si>
+  <si>
+    <t>対象年月・週</t>
+  </si>
+  <si>
+    <t>linkbutton</t>
+  </si>
+  <si>
+    <t>IDにリンクボタンの設定を行う。
+クリック時にキーを渡して、画面遷移する。
+（形式： 対象年月(YYYY/MM) W週）</t>
+  </si>
+  <si>
+    <t>画面入力値
+画面入力値</t>
+  </si>
+  <si>
+    <t>年月
+週</t>
+  </si>
+  <si>
+    <t>６桁（YYYYMM)
+１桁</t>
   </si>
   <si>
     <t>対象週(FROM)</t>
@@ -309,9 +360,6 @@
     <t>ヘッダー</t>
   </si>
   <si>
-    <t>linkbutton</t>
-  </si>
-  <si>
     <t>タレント名にリンクボタンの設定を行う。
 クリック時にキーを渡して、画面「タレント詳細画面」へ遷移する。
 ※タレントIDも保持する。</t>
@@ -329,9 +377,6 @@
   </si>
   <si>
     <t>タレントID</t>
-  </si>
-  <si>
-    <t>文字列</t>
   </si>
   <si>
     <t>8桁</t>
@@ -437,7 +482,23 @@
     <t>1. 処理一覧</t>
   </si>
   <si>
-    <t>リンクボタンをクリック時に、タレントID、対象年月、対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">検索条件部と検索ボタンのみ表示する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="游ゴシック"/>
+        <color rgb="FFFF0000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>パラメータが存在した場合は、検索処理を実施する。</t>
+    </r>
   </si>
   <si>
     <t>2. 処理詳細</t>
@@ -453,6 +514,9 @@
   </si>
   <si>
     <t xml:space="preserve">　　2-1-3. （検索結果）のヘッダー、データ部ともに非表示にする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-1-4 　パラメータが存在した場合は、2-2-2以降の検索処理をして画面へ設定する。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 検索ボタン押下時</t>
@@ -505,6 +569,12 @@
   <si>
     <t xml:space="preserve">　　2-5-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 2.6 対象年月・週クリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-6-1. リンクボタンをクリック時に、次画面「年月週管理登録画面（更新モード）」へ遷移する。</t>
+  </si>
 </sst>
 </file>
 
@@ -513,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -537,9 +607,51 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -551,13 +663,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -657,6 +769,17 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -668,17 +791,6 @@
       </bottom>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -730,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -770,7 +882,7 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -785,20 +897,41 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -809,26 +942,62 @@
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -839,34 +1008,46 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -878,16 +1059,16 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -899,23 +1080,47 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,11 +1139,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>-209550</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8677275" cy="5886450"/>
+    <xdr:ext cx="8705850" cy="5791200"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="画像"/>
@@ -1236,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="13">
-        <v>45316.0</v>
+        <v>45317.0</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>9</v>
@@ -1306,10 +1511,10 @@
       <c r="B7" s="18">
         <v>3.0</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="19">
         <v>45316.0</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
@@ -1317,10 +1522,18 @@
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>45317.0</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="B9" s="15"/>
@@ -2462,13 +2675,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2502,21 +2715,21 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="11">
         <v>45041.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
-        <v>45316.0</v>
+      <c r="L2" s="29">
+        <v>45317.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -2566,7 +2779,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3380,7 +3593,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3409,8 +3622,8 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
-      <c r="B34" s="23" t="s">
-        <v>20</v>
+      <c r="B34" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3439,8 +3652,8 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="24"/>
-      <c r="H35" s="25"/>
+      <c r="B35" s="31"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3462,8 +3675,8 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -3540,381 +3753,373 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="26" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" ht="33.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="12" t="s">
+      <c r="C40" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="D40" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" ht="60.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="12" t="s">
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="A41" s="36"/>
+      <c r="B41" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C41" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" ht="48.0" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="12" t="s">
+      <c r="D41" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" ht="48.0" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="30" t="s">
+      <c r="C42" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" ht="38.25" customHeight="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="32" t="s">
+      <c r="C43" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="C46" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+    </row>
+    <row r="47" ht="33.75" customHeight="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+      <c r="C47" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="26" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+    </row>
+    <row r="48" ht="60.75" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C48" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+    </row>
+    <row r="49" ht="48.0" customHeight="1">
+      <c r="A49" s="36"/>
+      <c r="B49" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="26" t="s">
+      <c r="C49" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+    </row>
+    <row r="50" ht="48.0" customHeight="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="C50" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J49" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-    </row>
-    <row r="50" ht="90.0" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>46</v>
-      </c>
+      <c r="D50" s="27"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3931,11 +4136,15 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="16.5" customHeight="1">
+    <row r="51" ht="38.25" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="27"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3959,66 +4168,50 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>47</v>
+    <row r="52" ht="36.75" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="49" t="s">
+        <v>45</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>47</v>
+      <c r="C52" s="50" t="s">
+        <v>46</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>39</v>
-      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K53" s="26" t="s">
-        <v>39</v>
-      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -4037,22 +4230,20 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="35" t="s">
-        <v>49</v>
+      <c r="B54" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
+      <c r="G54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -4071,32 +4262,20 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="36" t="s">
-        <v>51</v>
+      <c r="B55" s="6" t="s">
+        <v>49</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="G55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I55" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4115,22 +4294,32 @@
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="35" t="s">
-        <v>58</v>
+      <c r="B56" s="51" t="s">
+        <v>50</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>45</v>
+      <c r="C56" s="51" t="s">
+        <v>51</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>50</v>
+      <c r="D56" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
+      <c r="G56" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -4147,34 +4336,24 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1">
+    <row r="57" ht="90.0" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="36" t="s">
-        <v>51</v>
+      <c r="B57" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>59</v>
+      <c r="D57" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -4193,22 +4372,16 @@
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -4225,34 +4398,22 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" ht="43.5" customHeight="1">
+    <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="37" t="s">
-        <v>62</v>
+      <c r="B59" s="6" t="s">
+        <v>58</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="32" t="s">
-        <v>64</v>
+      <c r="G59" s="6" t="s">
+        <v>58</v>
       </c>
-      <c r="H59" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J59" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K59" s="32" t="s">
-        <v>68</v>
-      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4271,16 +4432,32 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
+      <c r="G60" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -4299,16 +4476,22 @@
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="B61" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -4327,31 +4510,31 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="6"/>
-      <c r="B62" s="26" t="s">
-        <v>37</v>
+      <c r="B62" s="55" t="s">
+        <v>62</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>48</v>
+      <c r="C62" s="12" t="s">
+        <v>63</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>39</v>
+      <c r="D62" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="26" t="s">
-        <v>40</v>
+      <c r="G62" s="12" t="s">
+        <v>65</v>
       </c>
-      <c r="H62" s="26" t="s">
-        <v>41</v>
+      <c r="H62" s="12" t="s">
+        <v>60</v>
       </c>
-      <c r="I62" s="26" t="s">
-        <v>42</v>
+      <c r="I62" s="12" t="s">
+        <v>66</v>
       </c>
-      <c r="J62" s="26" t="s">
-        <v>43</v>
+      <c r="J62" s="12" t="s">
+        <v>67</v>
       </c>
-      <c r="K62" s="26" t="s">
-        <v>39</v>
+      <c r="K62" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -4369,24 +4552,24 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" ht="34.5" customHeight="1">
+    <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="54" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
-      <c r="D63" s="32" t="s">
-        <v>71</v>
+      <c r="D63" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4403,33 +4586,33 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" ht="46.5" customHeight="1">
+    <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="12" t="s">
-        <v>72</v>
+      <c r="B64" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
-      <c r="D64" s="38" t="s">
-        <v>73</v>
+      <c r="D64" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="39" t="s">
-        <v>74</v>
+      <c r="G64" s="12" t="s">
+        <v>65</v>
       </c>
-      <c r="H64" s="40" t="s">
-        <v>75</v>
+      <c r="H64" s="12" t="s">
+        <v>69</v>
       </c>
-      <c r="I64" s="41" t="s">
-        <v>76</v>
+      <c r="I64" s="12" t="s">
+        <v>66</v>
       </c>
-      <c r="J64" s="41" t="s">
-        <v>77</v>
+      <c r="J64" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="K64" s="40" t="s">
-        <v>78</v>
+      <c r="K64" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -4449,22 +4632,22 @@
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="12" t="s">
-        <v>79</v>
+      <c r="B65" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
-      <c r="D65" s="42" t="s">
-        <v>50</v>
+      <c r="D65" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -4481,33 +4664,33 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="48.0" customHeight="1">
+    <row r="66" ht="43.5" customHeight="1">
       <c r="A66" s="6"/>
-      <c r="B66" s="12" t="s">
-        <v>80</v>
+      <c r="B66" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
-      <c r="D66" s="44" t="s">
-        <v>81</v>
+      <c r="D66" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="39" t="s">
+      <c r="G66" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="40" t="s">
-        <v>82</v>
+      <c r="I66" s="48" t="s">
+        <v>75</v>
       </c>
-      <c r="I66" s="41" t="s">
+      <c r="J66" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="J66" s="41" t="s">
+      <c r="K66" s="48" t="s">
         <v>77</v>
-      </c>
-      <c r="K66" s="40" t="s">
-        <v>83</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -4555,16 +4738,12 @@
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -4587,31 +4766,31 @@
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
-      <c r="B69" s="26" t="s">
-        <v>37</v>
+      <c r="B69" s="51" t="s">
+        <v>50</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>48</v>
+      <c r="C69" s="51" t="s">
+        <v>59</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>39</v>
+      <c r="D69" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="26" t="s">
-        <v>40</v>
+      <c r="G69" s="51" t="s">
+        <v>53</v>
       </c>
-      <c r="H69" s="26" t="s">
-        <v>41</v>
+      <c r="H69" s="51" t="s">
+        <v>54</v>
       </c>
-      <c r="I69" s="26" t="s">
-        <v>42</v>
+      <c r="I69" s="51" t="s">
+        <v>24</v>
       </c>
-      <c r="J69" s="26" t="s">
-        <v>43</v>
+      <c r="J69" s="51" t="s">
+        <v>25</v>
       </c>
-      <c r="K69" s="26" t="s">
-        <v>39</v>
+      <c r="K69" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -4629,24 +4808,24 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
+    <row r="70" ht="34.5" customHeight="1">
       <c r="A70" s="6"/>
-      <c r="B70" s="35" t="s">
-        <v>61</v>
+      <c r="B70" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>85</v>
+      <c r="D70" s="48" t="s">
+        <v>80</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
@@ -4663,68 +4842,76 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" ht="49.5" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47" t="s">
+    <row r="71" ht="43.5" customHeight="1">
+      <c r="A71" s="36"/>
+      <c r="B71" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I71" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J71" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D71" s="48" t="s">
+      <c r="K71" s="60"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+    </row>
+    <row r="72" ht="46.5" customHeight="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="38" t="s">
+      <c r="C72" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="H71" s="38" t="s">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="I71" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="J71" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" s="49" t="s">
+      <c r="H72" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H72" s="38" t="s">
+      <c r="I72" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="I72" s="38" t="s">
+      <c r="J72" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="J72" s="38" t="s">
+      <c r="K72" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K72" s="50"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -4743,22 +4930,22 @@
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="6"/>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>85</v>
+      <c r="D73" s="65" t="s">
+        <v>61</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -4775,31 +4962,33 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" ht="57.0" customHeight="1">
+    <row r="74" ht="48.0" customHeight="1">
       <c r="A74" s="6"/>
-      <c r="B74" s="37"/>
+      <c r="B74" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="C74" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
-      <c r="D74" s="32" t="s">
-        <v>95</v>
+      <c r="D74" s="67" t="s">
+        <v>96</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="38" t="s">
-        <v>96</v>
+      <c r="G74" s="62" t="s">
+        <v>89</v>
       </c>
-      <c r="H74" s="38" t="s">
+      <c r="H74" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="I74" s="38" t="s">
+      <c r="I74" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" s="63" t="s">
         <v>98</v>
-      </c>
-      <c r="J74" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="K74" s="38" t="s">
-        <v>100</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -4819,22 +5008,16 @@
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
-      <c r="B75" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>85</v>
-      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
@@ -4851,32 +5034,22 @@
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" ht="92.25" customHeight="1">
+    <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="6"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="51" t="s">
-        <v>86</v>
+      <c r="B76" s="6" t="s">
+        <v>99</v>
       </c>
-      <c r="D76" s="52" t="s">
-        <v>102</v>
-      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="12" t="s">
-        <v>103</v>
+      <c r="G76" s="6" t="s">
+        <v>58</v>
       </c>
-      <c r="H76" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I76" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J76" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="K76" s="53" t="s">
-        <v>107</v>
-      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
@@ -4893,26 +5066,34 @@
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" ht="45.0" customHeight="1">
+    <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="6"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
+      <c r="B77" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="12" t="s">
-        <v>108</v>
+      <c r="G77" s="51" t="s">
+        <v>53</v>
       </c>
-      <c r="H77" s="32" t="s">
-        <v>109</v>
+      <c r="H77" s="51" t="s">
+        <v>54</v>
       </c>
-      <c r="I77" s="32" t="s">
-        <v>66</v>
+      <c r="I77" s="51" t="s">
+        <v>24</v>
       </c>
-      <c r="J77" s="32" t="s">
-        <v>110</v>
+      <c r="J77" s="51" t="s">
+        <v>25</v>
       </c>
-      <c r="K77" s="50"/>
+      <c r="K77" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
@@ -4931,22 +5112,22 @@
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="6"/>
-      <c r="B78" s="35" t="s">
-        <v>111</v>
+      <c r="B78" s="54" t="s">
+        <v>31</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
+      <c r="G78" s="68"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -4963,30 +5144,32 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" ht="38.25" customHeight="1">
-      <c r="A79" s="54"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="12" t="s">
-        <v>45</v>
+    <row r="79" ht="49.5" customHeight="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="70" t="s">
+        <v>82</v>
       </c>
-      <c r="D79" s="32" t="s">
-        <v>112</v>
+      <c r="D79" s="71" t="s">
+        <v>101</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="12" t="s">
-        <v>54</v>
+      <c r="G79" s="61" t="s">
+        <v>102</v>
       </c>
-      <c r="H79" s="32" t="s">
-        <v>113</v>
+      <c r="H79" s="61" t="s">
+        <v>103</v>
       </c>
-      <c r="I79" s="32" t="s">
-        <v>114</v>
+      <c r="I79" s="61" t="s">
+        <v>75</v>
       </c>
-      <c r="J79" s="32" t="s">
-        <v>115</v>
+      <c r="J79" s="61" t="s">
+        <v>76</v>
       </c>
-      <c r="K79" s="12"/>
+      <c r="K79" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -5003,24 +5186,26 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" ht="59.25" customHeight="1">
-      <c r="A80" s="54"/>
-      <c r="B80" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>117</v>
-      </c>
+    <row r="80" ht="16.5" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
+      <c r="G80" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" s="73"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -5039,16 +5224,22 @@
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="B81" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -5065,18 +5256,32 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" ht="16.5" customHeight="1">
+    <row r="82" ht="57.0" customHeight="1">
       <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="48" t="s">
+        <v>108</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
+      <c r="G82" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="I82" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="K82" s="61" t="s">
+        <v>113</v>
+      </c>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
@@ -5095,16 +5300,22 @@
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+      <c r="B83" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="53"/>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
@@ -5121,18 +5332,32 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" ht="16.5" customHeight="1">
+    <row r="84" ht="92.25" customHeight="1">
       <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="75" t="s">
+        <v>115</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
+      <c r="G84" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H84" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I84" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J84" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K84" s="76" t="s">
+        <v>120</v>
+      </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
@@ -5149,18 +5374,26 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" ht="16.5" customHeight="1">
+    <row r="85" ht="45.0" customHeight="1">
       <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
+      <c r="G85" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H85" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I85" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="J85" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="K85" s="73"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
@@ -5179,16 +5412,22 @@
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
+      <c r="B86" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="53"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="53"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -5205,18 +5444,30 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
+    <row r="87" ht="38.25" customHeight="1">
+      <c r="A87" s="77"/>
+      <c r="B87" s="78"/>
+      <c r="C87" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>125</v>
+      </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
+      <c r="G87" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H87" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="I87" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J87" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="K87" s="12"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
@@ -5233,18 +5484,24 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+    <row r="88" ht="59.25" customHeight="1">
+      <c r="A88" s="77"/>
+      <c r="B88" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>130</v>
+      </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
@@ -30769,24 +31026,249 @@
       <c r="Y999" s="6"/>
       <c r="Z999" s="6"/>
     </row>
+    <row r="1000" ht="16.5" customHeight="1">
+      <c r="A1000" s="6"/>
+      <c r="B1000" s="6"/>
+      <c r="C1000" s="6"/>
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="6"/>
+      <c r="F1000" s="6"/>
+      <c r="G1000" s="6"/>
+      <c r="H1000" s="6"/>
+      <c r="I1000" s="6"/>
+      <c r="J1000" s="6"/>
+      <c r="K1000" s="6"/>
+      <c r="L1000" s="6"/>
+      <c r="M1000" s="6"/>
+      <c r="N1000" s="6"/>
+      <c r="O1000" s="6"/>
+      <c r="P1000" s="6"/>
+      <c r="Q1000" s="6"/>
+      <c r="R1000" s="6"/>
+      <c r="S1000" s="6"/>
+      <c r="T1000" s="6"/>
+      <c r="U1000" s="6"/>
+      <c r="V1000" s="6"/>
+      <c r="W1000" s="6"/>
+      <c r="X1000" s="6"/>
+      <c r="Y1000" s="6"/>
+      <c r="Z1000" s="6"/>
+    </row>
+    <row r="1001" ht="16.5" customHeight="1">
+      <c r="A1001" s="6"/>
+      <c r="B1001" s="6"/>
+      <c r="C1001" s="6"/>
+      <c r="D1001" s="6"/>
+      <c r="E1001" s="6"/>
+      <c r="F1001" s="6"/>
+      <c r="G1001" s="6"/>
+      <c r="H1001" s="6"/>
+      <c r="I1001" s="6"/>
+      <c r="J1001" s="6"/>
+      <c r="K1001" s="6"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="6"/>
+      <c r="N1001" s="6"/>
+      <c r="O1001" s="6"/>
+      <c r="P1001" s="6"/>
+      <c r="Q1001" s="6"/>
+      <c r="R1001" s="6"/>
+      <c r="S1001" s="6"/>
+      <c r="T1001" s="6"/>
+      <c r="U1001" s="6"/>
+      <c r="V1001" s="6"/>
+      <c r="W1001" s="6"/>
+      <c r="X1001" s="6"/>
+      <c r="Y1001" s="6"/>
+      <c r="Z1001" s="6"/>
+    </row>
+    <row r="1002" ht="16.5" customHeight="1">
+      <c r="A1002" s="6"/>
+      <c r="B1002" s="6"/>
+      <c r="C1002" s="6"/>
+      <c r="D1002" s="6"/>
+      <c r="E1002" s="6"/>
+      <c r="F1002" s="6"/>
+      <c r="G1002" s="6"/>
+      <c r="H1002" s="6"/>
+      <c r="I1002" s="6"/>
+      <c r="J1002" s="6"/>
+      <c r="K1002" s="6"/>
+      <c r="L1002" s="6"/>
+      <c r="M1002" s="6"/>
+      <c r="N1002" s="6"/>
+      <c r="O1002" s="6"/>
+      <c r="P1002" s="6"/>
+      <c r="Q1002" s="6"/>
+      <c r="R1002" s="6"/>
+      <c r="S1002" s="6"/>
+      <c r="T1002" s="6"/>
+      <c r="U1002" s="6"/>
+      <c r="V1002" s="6"/>
+      <c r="W1002" s="6"/>
+      <c r="X1002" s="6"/>
+      <c r="Y1002" s="6"/>
+      <c r="Z1002" s="6"/>
+    </row>
+    <row r="1003" ht="16.5" customHeight="1">
+      <c r="A1003" s="6"/>
+      <c r="B1003" s="6"/>
+      <c r="C1003" s="6"/>
+      <c r="D1003" s="6"/>
+      <c r="E1003" s="6"/>
+      <c r="F1003" s="6"/>
+      <c r="G1003" s="6"/>
+      <c r="H1003" s="6"/>
+      <c r="I1003" s="6"/>
+      <c r="J1003" s="6"/>
+      <c r="K1003" s="6"/>
+      <c r="L1003" s="6"/>
+      <c r="M1003" s="6"/>
+      <c r="N1003" s="6"/>
+      <c r="O1003" s="6"/>
+      <c r="P1003" s="6"/>
+      <c r="Q1003" s="6"/>
+      <c r="R1003" s="6"/>
+      <c r="S1003" s="6"/>
+      <c r="T1003" s="6"/>
+      <c r="U1003" s="6"/>
+      <c r="V1003" s="6"/>
+      <c r="W1003" s="6"/>
+      <c r="X1003" s="6"/>
+      <c r="Y1003" s="6"/>
+      <c r="Z1003" s="6"/>
+    </row>
+    <row r="1004" ht="16.5" customHeight="1">
+      <c r="A1004" s="6"/>
+      <c r="B1004" s="6"/>
+      <c r="C1004" s="6"/>
+      <c r="D1004" s="6"/>
+      <c r="E1004" s="6"/>
+      <c r="F1004" s="6"/>
+      <c r="G1004" s="6"/>
+      <c r="H1004" s="6"/>
+      <c r="I1004" s="6"/>
+      <c r="J1004" s="6"/>
+      <c r="K1004" s="6"/>
+      <c r="L1004" s="6"/>
+      <c r="M1004" s="6"/>
+      <c r="N1004" s="6"/>
+      <c r="O1004" s="6"/>
+      <c r="P1004" s="6"/>
+      <c r="Q1004" s="6"/>
+      <c r="R1004" s="6"/>
+      <c r="S1004" s="6"/>
+      <c r="T1004" s="6"/>
+      <c r="U1004" s="6"/>
+      <c r="V1004" s="6"/>
+      <c r="W1004" s="6"/>
+      <c r="X1004" s="6"/>
+      <c r="Y1004" s="6"/>
+      <c r="Z1004" s="6"/>
+    </row>
+    <row r="1005" ht="16.5" customHeight="1">
+      <c r="A1005" s="6"/>
+      <c r="B1005" s="6"/>
+      <c r="C1005" s="6"/>
+      <c r="D1005" s="6"/>
+      <c r="E1005" s="6"/>
+      <c r="F1005" s="6"/>
+      <c r="G1005" s="6"/>
+      <c r="H1005" s="6"/>
+      <c r="I1005" s="6"/>
+      <c r="J1005" s="6"/>
+      <c r="K1005" s="6"/>
+      <c r="L1005" s="6"/>
+      <c r="M1005" s="6"/>
+      <c r="N1005" s="6"/>
+      <c r="O1005" s="6"/>
+      <c r="P1005" s="6"/>
+      <c r="Q1005" s="6"/>
+      <c r="R1005" s="6"/>
+      <c r="S1005" s="6"/>
+      <c r="T1005" s="6"/>
+      <c r="U1005" s="6"/>
+      <c r="V1005" s="6"/>
+      <c r="W1005" s="6"/>
+      <c r="X1005" s="6"/>
+      <c r="Y1005" s="6"/>
+      <c r="Z1005" s="6"/>
+    </row>
+    <row r="1006" ht="16.5" customHeight="1">
+      <c r="A1006" s="6"/>
+      <c r="B1006" s="6"/>
+      <c r="C1006" s="6"/>
+      <c r="D1006" s="6"/>
+      <c r="E1006" s="6"/>
+      <c r="F1006" s="6"/>
+      <c r="G1006" s="6"/>
+      <c r="H1006" s="6"/>
+      <c r="I1006" s="6"/>
+      <c r="J1006" s="6"/>
+      <c r="K1006" s="6"/>
+      <c r="L1006" s="6"/>
+      <c r="M1006" s="6"/>
+      <c r="N1006" s="6"/>
+      <c r="O1006" s="6"/>
+      <c r="P1006" s="6"/>
+      <c r="Q1006" s="6"/>
+      <c r="R1006" s="6"/>
+      <c r="S1006" s="6"/>
+      <c r="T1006" s="6"/>
+      <c r="U1006" s="6"/>
+      <c r="V1006" s="6"/>
+      <c r="W1006" s="6"/>
+      <c r="X1006" s="6"/>
+      <c r="Y1006" s="6"/>
+      <c r="Z1006" s="6"/>
+    </row>
+    <row r="1007" ht="16.5" customHeight="1">
+      <c r="A1007" s="6"/>
+      <c r="B1007" s="6"/>
+      <c r="C1007" s="6"/>
+      <c r="D1007" s="6"/>
+      <c r="E1007" s="6"/>
+      <c r="F1007" s="6"/>
+      <c r="G1007" s="6"/>
+      <c r="H1007" s="6"/>
+      <c r="I1007" s="6"/>
+      <c r="J1007" s="6"/>
+      <c r="K1007" s="6"/>
+      <c r="L1007" s="6"/>
+      <c r="M1007" s="6"/>
+      <c r="N1007" s="6"/>
+      <c r="O1007" s="6"/>
+      <c r="P1007" s="6"/>
+      <c r="Q1007" s="6"/>
+      <c r="R1007" s="6"/>
+      <c r="S1007" s="6"/>
+      <c r="T1007" s="6"/>
+      <c r="U1007" s="6"/>
+      <c r="V1007" s="6"/>
+      <c r="W1007" s="6"/>
+      <c r="X1007" s="6"/>
+      <c r="Y1007" s="6"/>
+      <c r="Z1007" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="B34:H37"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30824,13 +31306,13 @@
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
@@ -30864,21 +31346,21 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="11">
         <v>45041.0</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13">
-        <v>45316.0</v>
+      <c r="L2" s="29">
+        <v>45317.0</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>9</v>
@@ -30899,207 +31381,332 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="56" t="s">
-        <v>118</v>
+      <c r="B4" s="79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>22</v>
+      <c r="C5" s="80" t="s">
+        <v>33</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>23</v>
+      <c r="D5" s="81" t="s">
+        <v>34</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
       <c r="B6" s="15">
         <v>1.0</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>25</v>
+      <c r="D6" s="44" t="s">
+        <v>132</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
       <c r="B7" s="15">
         <v>2.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>27</v>
+      <c r="D7" s="45" t="s">
+        <v>38</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" ht="69.0" customHeight="1">
       <c r="B8" s="15">
         <v>3.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>119</v>
+      <c r="D8" s="45" t="s">
+        <v>40</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" ht="69.0" customHeight="1">
-      <c r="B9" s="59">
+      <c r="B9" s="82">
         <v>4.0</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>30</v>
+      <c r="C9" s="46" t="s">
+        <v>41</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>31</v>
+      <c r="D9" s="47" t="s">
+        <v>42</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" ht="60.75" customHeight="1">
-      <c r="B10" s="18">
+      <c r="B10" s="83">
         <v>5.0</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>33</v>
+      <c r="D10" s="45" t="s">
+        <v>44</v>
       </c>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" ht="36.75" customHeight="1">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+    </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="56" t="s">
-        <v>120</v>
+      <c r="B12" s="79"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="B13" s="79" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1"/>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="56" t="s">
-        <v>121</v>
+    <row r="14" ht="18.75" customHeight="1"/>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="B15" s="79" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="56" t="s">
-        <v>122</v>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="B16" s="79" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="56" t="s">
-        <v>123</v>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="B17" s="79" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="56" t="s">
-        <v>124</v>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="B18" s="79" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1"/>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="56" t="s">
-        <v>125</v>
+      <c r="B19" s="89" t="s">
+        <v>138</v>
       </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="56" t="s">
-        <v>126</v>
+      <c r="C19" s="90"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1"/>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="B21" s="79" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="C21" s="56" t="s">
-        <v>127</v>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="B22" s="79" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="C22" s="56" t="s">
-        <v>128</v>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="C23" s="79" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="C23" s="56" t="s">
-        <v>129</v>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="C24" s="79" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="C24" s="56" t="s">
-        <v>130</v>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="C25" s="79" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="C25" s="56" t="s">
-        <v>131</v>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="C26" s="79" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1"/>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="60" t="s">
-        <v>132</v>
+      <c r="C27" s="79" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1"/>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="56" t="s">
-        <v>133</v>
+      <c r="B29" s="91" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="B31" s="56" t="s">
-        <v>134</v>
+      <c r="B31" s="79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1"/>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="B33" s="56" t="s">
-        <v>135</v>
+      <c r="B33" s="79" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1"/>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="B35" s="56" t="s">
-        <v>136</v>
+      <c r="B35" s="79" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="B36" s="56" t="s">
-        <v>137</v>
+    <row r="36" ht="18.75" customHeight="1"/>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="B37" s="79" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1"/>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="B38" s="61" t="s">
-        <v>138</v>
+      <c r="B38" s="79" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="B39" s="61" t="s">
-        <v>139</v>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1">
+      <c r="B40" s="89" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="40" ht="18.75" customHeight="1"/>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="B41" s="60" t="s">
-        <v>140</v>
+      <c r="B41" s="89" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="B42" s="60" t="s">
-        <v>141</v>
+    <row r="42" ht="18.75" customHeight="1"/>
+    <row r="43" ht="18.75" customHeight="1">
+      <c r="B43" s="91" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1">
+      <c r="B44" s="91" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1">
+      <c r="A45" s="88"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+    </row>
+    <row r="46" ht="18.75" customHeight="1">
+      <c r="A46" s="88"/>
+      <c r="B46" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="88"/>
+    </row>
+    <row r="47" ht="18.75" customHeight="1">
+      <c r="A47" s="88"/>
+      <c r="B47" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+    </row>
     <row r="48" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1"/>
     <row r="50" ht="18.75" customHeight="1"/>
@@ -32054,8 +32661,10 @@
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
     <row r="1001" ht="18.75" customHeight="1"/>
+    <row r="1002" ht="18.75" customHeight="1"/>
+    <row r="1003" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -32065,6 +32674,7 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
